--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S\Documents\UiPath_2\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E787035-C177-4C29-B1C3-7D16D7BA7A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A876A-CC0A-4E4A-AAFC-5F2F09EA8077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="2865" windowWidth="35580" windowHeight="15855" activeTab="1" xr2:uid="{F2E7DB86-A902-49A5-8FFE-3B34A02633B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2E7DB86-A902-49A5-8FFE-3B34A02633B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Exceptions" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,9 +386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACD85E5-474C-4ECE-9285-6A9AC8799785}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -394,9 +398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493BFA02-E12E-4E44-8728-15277AFB2D31}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S\Documents\UiPath_2\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A876A-CC0A-4E4A-AAFC-5F2F09EA8077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82097CA1-F483-4572-8122-C2DD66EA7584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F2E7DB86-A902-49A5-8FFE-3B34A02633B7}"/>
   </bookViews>
@@ -386,7 +386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACD85E5-474C-4ECE-9285-6A9AC8799785}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -538,6 +538,46 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
+    <x:row r="31" spans="1:1">
+      <x:c r="A31" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:1">
+      <x:c r="A32" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:1">
+      <x:c r="A33" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:1">
+      <x:c r="A34" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:1">
+      <x:c r="A35" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:1">
+      <x:c r="A36" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:1">
+      <x:c r="A37" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:1">
+      <x:c r="A38" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3C1EFCF250D5557E188AE2BD49FACF9A525086BA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5ABEC3B-1415-44C5-8D97-52967C31A3D0}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-09-2020\RandomFolder1\ for the change: CHANGES - SOX Audit Report for testps0324.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-22-2020\RandomFolder2\ for the change: CHANGES - SOX Audit Report for magic435.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-24-2020\CHR0000381057.pdf for the change: CHANGES - SOX Audit Report for magic_iq23.txt_07.01.73.eml made on 1/24/2020 is not a valid path.</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <x:si>
     <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-24-2020\CHR0000382957.pdf for the change: CHANGES - SOX Audit Report for testqcl12.txt_07.01.73.eml made on 1/24/2020 is not a valid path.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-09-2020\CHR0000928476.pdf for the change: CHANGES - SOX Audit Report for testps9023.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
   </x:si>
   <x:si>
     <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-22-2020\CHR0000391114.pdf for the change: CHANGES - SOX Audit Report for magic_qq_23455.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
@@ -37,13 +32,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -59,30 +53,22 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -91,10 +77,19 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -377,207 +372,35 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="H18" sqref="H18 H18:H18 A1:XFD1048576"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="0" t="s">
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="0" t="s">
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1">
-      <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1">
-      <x:c r="A4" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1">
-      <x:c r="A5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1">
-      <x:c r="A6" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1">
-      <x:c r="A7" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1">
-      <x:c r="A8" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1">
-      <x:c r="A9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:1">
-      <x:c r="A10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1">
-      <x:c r="A11" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1">
-      <x:c r="A12" s="0" t="s">
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:1">
-      <x:c r="A13" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1">
-      <x:c r="A14" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:1">
-      <x:c r="A15" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:1">
-      <x:c r="A16" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:1">
-      <x:c r="A17" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:1">
-      <x:c r="A18" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:1">
-      <x:c r="A19" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:1">
-      <x:c r="A20" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:1">
-      <x:c r="A21" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:1">
-      <x:c r="A22" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:1">
-      <x:c r="A23" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:1">
-      <x:c r="A24" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:1">
-      <x:c r="A25" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:1">
-      <x:c r="A26" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:1">
-      <x:c r="A27" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:1">
-      <x:c r="A28" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:1">
-      <x:c r="A29" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:1">
-      <x:c r="A30" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:1">
-      <x:c r="A31" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:1">
-      <x:c r="A32" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:1">
-      <x:c r="A33" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:1">
-      <x:c r="A34" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:1">
-      <x:c r="A35" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:1">
-      <x:c r="A36" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:1">
-      <x:c r="A37" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:1">
-      <x:c r="A38" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
+    <x:row r="18" spans="1:8"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -21,12 +21,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <x:si>
     <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-24-2020\CHR0000382957.pdf for the change: CHANGES - SOX Audit Report for testqcl12.txt_07.01.73.eml made on 1/24/2020 is not a valid path.</x:t>
   </x:si>
   <x:si>
     <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-22-2020\CHR0000391114.pdf for the change: CHANGES - SOX Audit Report for magic_qq_23455.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-09-2020\CHR0000928476.pdf for the change: CHANGES - SOX Audit Report for testps9023.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -400,6 +403,22 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8"/>
     <x:row r="18" spans="1:8"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <x:si>
     <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-24-2020\CHR0000382957.pdf for the change: CHANGES - SOX Audit Report for testqcl12.txt_07.01.73.eml made on 1/24/2020 is not a valid path.</x:t>
   </x:si>
@@ -30,6 +30,9 @@
   </x:si>
   <x:si>
     <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-09-2020\CHR0000928476.pdf for the change: CHANGES - SOX Audit Report for testps9023.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-22-2020\RandomFolder2\ for the change: CHANGES - SOX Audit Report for magic435.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -418,7 +421,31 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:8"/>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
     <x:row r="18" spans="1:8"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -1,46 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3C1EFCF250D5557E188AE2BD49FACF9A525086BA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5ABEC3B-1415-44C5-8D97-52967C31A3D0}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-24-2020\CHR0000382957.pdf for the change: CHANGES - SOX Audit Report for testqcl12.txt_07.01.73.eml made on 1/24/2020 is not a valid path.</x:t>
-  </x:si>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <x:si>
     <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-22-2020\CHR0000391114.pdf for the change: CHANGES - SOX Audit Report for magic_qq_23455.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
   </x:si>
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-09-2020\CHR0000928476.pdf for the change: CHANGES - SOX Audit Report for testps9023.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
-  </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
+  <x:fonts count="1">
     <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -56,22 +44,30 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  <x:cellXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -80,19 +76,10 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -375,51 +362,22 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="H18" sqref="H18 H18:H18 A1:XFD1048576"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
-      <x:c r="A1" s="1" t="s">
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="A6" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8"/>
-    <x:row r="18" spans="1:8"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -1,32 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{30DBA732-B49A-4B94-9AE0-86637A810B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22B8DFFB-ABA0-4DAA-B7FA-9CA659D0E1D7}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="4356" yWindow="2604" windowWidth="17280" windowHeight="8964" firstSheet="0" activeTab="0" xr2:uid="{E61F36DB-E3C1-4D81-9AD0-392D3273C6C2}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <x:sheet name="System Exceptions" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </x:ext>
+  </x:extLst>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <x:si>
-    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-22-2020\CHR0000391114.pdf for the change: CHANGES - SOX Audit Report for magic_qq_23455.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
+    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-09-2020\CHR0000928476.pdf for the change: CHANGES - SOX Audit Report for testps9023.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -44,30 +73,22 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -76,10 +97,19 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -90,44 +120,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -154,14 +184,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -188,6 +236,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -199,186 +265,200 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{0E39E9EB-0823-4512-9F06-C076B0D8756A}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{76068DCB-BAB5-434F-8014-2A099B63434F}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -1,112 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1551b3744a113d45/Documents/UiPath/Robotic_Process_Automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{30DBA732-B49A-4B94-9AE0-86637A810B19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{22B8DFFB-ABA0-4DAA-B7FA-9CA659D0E1D7}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="4356" yWindow="2604" windowWidth="17280" windowHeight="8964" firstSheet="0" activeTab="0" xr2:uid="{E61F36DB-E3C1-4D81-9AD0-392D3273C6C2}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <x:sheet name="System Exceptions" sheetId="6" r:id="rId6"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16395C6-4BAB-44F9-8C76-33F1BE7DB26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{E61F36DB-E3C1-4D81-9AD0-392D3273C6C2}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="System Exceptions" sheetId="6" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: \\MainFolder\Remediation_or_Justification Evidence\1-09-2020\CHR0000928476.pdf for the change: CHANGES - SOX Audit Report for testps9023.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,64 +385,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{0E39E9EB-0823-4512-9F06-C076B0D8756A}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E39E9EB-0823-4512-9F06-C076B0D8756A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{76068DCB-BAB5-434F-8014-2A099B63434F}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76068DCB-BAB5-434F-8014-2A099B63434F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>
--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -1,92 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16395C6-4BAB-44F9-8C76-33F1BE7DB26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{E61F36DB-E3C1-4D81-9AD0-392D3273C6C2}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="System Exceptions" sheetId="6" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B326E750-D8FE-4DB1-BF07-11C397EFA19D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="0" activeTab="0" xr2:uid="{E61F36DB-E3C1-4D81-9AD0-392D3273C6C2}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <x:sheet name="System Exceptions" sheetId="6" r:id="rId3"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <x:si>
+    <x:t>CHANGES - SOX...eml on date01/09/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX...eml on date01/13/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX...eml on date01/14/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX...eml on date01/22/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX...eml on date01/24/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{row.item(3).ToString + " " + row.item(0).ToString.Substring(0,10) +  " does not contain Server Name " + row.item(7).ToString}</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,41 +420,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E39E9EB-0823-4512-9F06-C076B0D8756A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{0E39E9EB-0823-4512-9F06-C076B0D8756A}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A2:A22"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F5" sqref="F5 F5:F5 A1:XFD1048576"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <x:sheetData>
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A3" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A4" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A5" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A6" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A7" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A8" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A9" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A10" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A11" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A12" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A13" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A14" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A15" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A16" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A17" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A18" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A19" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A20" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A21" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A22" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6"/>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76068DCB-BAB5-434F-8014-2A099B63434F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{76068DCB-BAB5-434F-8014-2A099B63434F}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A3"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A2" workbookViewId="0">
+      <x:selection activeCell="E2" sqref="E2 E2:E2 A1:XFD1048576"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <x:row r="2" spans="1:5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <x:row r="3" spans="1:5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -5,12 +5,12 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B326E750-D8FE-4DB1-BF07-11C397EFA19D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0513620-AFAA-4E87-BA25-F5A4F19DE0BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="0" activeTab="0" xr2:uid="{E61F36DB-E3C1-4D81-9AD0-392D3273C6C2}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{325A0D12-9FD8-47D1-BCAC-4A91C2A5175E}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
@@ -102,8 +102,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -420,124 +421,315 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{0E39E9EB-0823-4512-9F06-C076B0D8756A}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{36A60BA7-0529-4D26-B31E-849C26A3C4E3}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A2:A22"/>
+  <x:dimension ref="A2:A62"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="F5" sqref="F5 F5:F5 A1:XFD1048576"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A3" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A4" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A5" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A6" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A7" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A8" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A9" s="1" t="s">
+    <x:row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A10" s="1" t="s">
+    <x:row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A11" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A12" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A13" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A14" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A15" s="1" t="s">
+    <x:row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A16" s="1" t="s">
+    <x:row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A16" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A17" s="1" t="s">
+    <x:row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A17" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A22" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A23" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A24" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A25" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A26" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A27" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A28" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A29" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A30" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A31" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A32" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A33" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A34" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A35" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A18" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A19" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A20" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A21" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A22" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:6"/>
+    <x:row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A36" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A37" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A38" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A39" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A40" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A41" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A43" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A44" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A45" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A46" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A47" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A48" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A49" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A50" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A51" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A52" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A53" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A54" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A55" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A56" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A57" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A58" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A59" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A60" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A61" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A62" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -548,7 +740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{76068DCB-BAB5-434F-8014-2A099B63434F}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{8DD2BE38-3F65-448B-9455-9719376D4518}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -556,7 +748,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -571,21 +763,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A3"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A2" workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2 E2:E2 A1:XFD1048576"/>
-    </x:sheetView>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:5" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <x:row r="2" spans="1:5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <x:row r="3" spans="1:5" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  </x:sheetData>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0513620-AFAA-4E87-BA25-F5A4F19DE0BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA28754-61AC-4A2C-9B74-7C578F9C15C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{325A0D12-9FD8-47D1-BCAC-4A91C2A5175E}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{AD127604-E5F9-4811-8B39-840820810D8A}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <x:sheet name="System Exceptions" sheetId="6" r:id="rId3"/>
+    <x:sheet name="System Exceptions" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -102,9 +102,8 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -421,315 +420,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{36A60BA7-0529-4D26-B31E-849C26A3C4E3}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{94134A0C-E3B5-4A0C-AA78-17BF0DE01E86}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A2:A62"/>
+  <x:dimension ref="A2:A22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
     <x:row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
+      <x:c r="A6" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s">
+      <x:c r="A9" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="2" t="s">
+      <x:c r="A10" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="2" t="s">
+      <x:c r="A11" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="2" t="s">
+      <x:c r="A12" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="2" t="s">
+      <x:c r="A13" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="2" t="s">
+      <x:c r="A14" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="2" t="s">
+      <x:c r="A15" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A16" s="2" t="s">
+      <x:c r="A16" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A17" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A18" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A18" s="2" t="s">
+    <x:row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A19" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A19" s="2" t="s">
+    <x:row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A20" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A20" s="2" t="s">
+    <x:row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A21" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A21" s="2" t="s"/>
-    </x:row>
     <x:row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A22" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A23" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A24" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A25" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A26" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A27" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A28" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A29" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A30" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A31" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A32" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A33" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A34" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A35" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A36" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A37" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A38" s="2" t="s">
+      <x:c r="A22" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A39" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A40" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A41" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A43" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A44" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A45" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A46" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A47" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A48" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A49" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A50" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A51" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A52" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A53" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A54" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A55" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A56" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A57" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A58" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A59" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A60" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A61" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A62" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:1"/>
+    <x:row r="23" spans="1:1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -740,7 +546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{8DD2BE38-3F65-448B-9455-9719376D4518}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{206083C2-2E31-48F0-892F-C5BFC36EC0B3}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -759,7 +565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -767,7 +573,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A596B110-041C-4C46-8D7F-1E2C5C717583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221D74A-1563-4847-97B2-DEAF88FCC756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" firstSheet="0" activeTab="0" xr2:uid="{C5D605D0-3E49-4D8D-8148-446A1529E164}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{7115F4FF-24B6-4644-8968-8CED01078169}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <x:sheet name="System Exceptions" sheetId="6" r:id="rId3"/>
+    <x:sheet name="System Exceptions" sheetId="6" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <x:si>
     <x:t>CHANGES - SOX...eml does not have valid Reference Type in column I</x:t>
   </x:si>
@@ -44,6 +44,9 @@
     <x:t>CHANGES - SOX...eml on date01/09/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</x:t>
   </x:si>
   <x:si>
+    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kl02 (Expected Server Name)</x:t>
+  </x:si>
+  <x:si>
     <x:t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kq_023</x:t>
   </x:si>
   <x:si>
@@ -54,44 +57,6 @@
   </x:si>
   <x:si>
     <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-22-2020\RE Random Email missing.msg for the change: CHANGES - SOX Audit Report for test234234.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>System.IO.IOException: The process cannot access the file 'C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\outputExcel.xlsx' because it is being used by another process.
-   at System.IO.__Error.WinIOError(Int32 errorCode, String maybeFullPath)
-   at System.IO.FileStream.Init(String path, FileMode mode, FileAccess access, Int32 rights, Boolean useRights, FileShare share, Int32 bufferSize, FileOptions options, SECURITY_ATTRIBUTES secAttrs, String msgPath, Boolean bFromProxy, Boolean useLongPath, Boolean checkHost)
-   at System.IO.FileStream..ctor(String path, FileMode mode, FileAccess access, FileShare share, Int32 bufferSize, FileOptions options, String msgPath, Boolean bFromProxy)
-   at System.IO.FileStream..ctor(String path, FileMode mode, FileAccess access, FileShare share, Int32 bufferSize, Boolean useAsync)
-   at MS.Internal.IO.Zip.ZipArchive.OpenOnFile(String path, FileMode mode, FileAccess access, FileShare share, Boolean streaming)
-   at System.IO.Packaging.ZipPackage..ctor(String path, FileMode mode, FileAccess access, FileShare share, Boolean streaming)
-   at System.IO.Packaging.Package.Open(String path, FileMode packageMode, FileAccess packageAccess, FileShare packageShare, Boolean streaming)
-   at DocumentFormat.OpenXml.Packaging.OpenXmlPackage.OpenCore(String path, Boolean readWriteMode)
-   at DocumentFormat.OpenXml.Packaging.SpreadsheetDocument.Open(String path, Boolean isEditable, OpenSettings openSettings)
-   at ClosedXML.Excel.XLWorkbook.LoadSheets(String fileName) in C:\Projects\ClosedXML\ClosedXML\Excel\XLWorkbook_Load.cs:line 44
-   at UiPath.Excel.WorkbookFile..ctor(String workbookPath, String password, Boolean createNew)
-   at UiPath.Excel.Activities.WorkbookActivity`1.ConstructWorkbook(String path, String password, Boolean createNew)
-   at UiPath.Excel.Activities.WorkbookActivity`1.BeginExecute(AsyncCodeActivityContext context, AsyncCallback callback, Object state)
-   at System.Activities.AsyncCodeActivity.InternalExecute(ActivityInstance instance, ActivityExecutor executor, BookmarkManager bookmarkManager)
-   at System.Activities.ActivityInstance.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)
-   at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>System.IO.IOException: The process cannot access the file 'C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\outputExcel.xlsx' because it is being used by another process.
-   at System.IO.__Error.WinIOError(Int32 errorCode, String maybeFullPath)
-   at System.IO.FileStream.Init(String path, FileMode mode, FileAccess access, Int32 rights, Boolean useRights, FileShare share, Int32 bufferSize, FileOptions options, SECURITY_ATTRIBUTES secAttrs, String msgPath, Boolean bFromProxy, Boolean useLongPath, Boolean checkHost)
-   at System.IO.FileStream..ctor(String path, FileMode mode, FileAccess access, FileShare share, Int32 bufferSize, FileOptions options, String msgPath, Boolean bFromProxy)
-   at System.IO.FileStream..ctor(String path, FileMode mode, FileAccess access, FileShare share, Int32 bufferSize, Boolean useAsync)
-   at MS.Internal.IO.Zip.ZipArchive.OpenOnFile(String path, FileMode mode, FileAccess access, FileShare share, Boolean streaming)
-   at System.IO.Packaging.ZipPackage..ctor(String path, FileMode mode, FileAccess access, FileShare share, Boolean streaming)
-   at System.IO.Packaging.Package.Open(String path, FileMode packageMode, FileAccess packageAccess, FileShare packageShare, Boolean streaming)
-   at DocumentFormat.OpenXml.Packaging.OpenXmlPackage.OpenCore(String path, Boolean readWriteMode)
-   at DocumentFormat.OpenXml.Packaging.SpreadsheetDocument.Open(String path, Boolean isEditable, OpenSettings openSettings)
-   at ClosedXML.Excel.XLWorkbook.LoadSheets(String fileName) in C:\Projects\ClosedXML\ClosedXML\Excel\XLWorkbook_Load.cs:line 44
-   at UiPath.Excel.WorkbookFile..ctor(String workbookPath, String password, Boolean createNew)
-   at UiPath.Excel.Activities.WorkbookActivity`1.ConstructWorkbook(String path, String password, Boolean createNew)
-   at UiPath.Excel.Activities.WorkbookActivity`1.BeginExecute(AsyncCodeActivityContext context, AsyncCallback callback, Object state)
-   at System.Activities.AsyncCodeActivity.InternalExecute(ActivityInstance instance, ActivityExecutor executor, BookmarkManager bookmarkManager)
-   at System.Activities.ActivityInstance.Execute(ActivityExecutor executor, BookmarkManager bookmarkManager)
-   at System.Activities.Runtime.ActivityExecutor.ExecuteActivityWorkItem.ExecuteBody(ActivityExecutor executor, BookmarkManager bookmarkManager, Location resultLocation)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -134,30 +99,16 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="5">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -472,92 +423,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{F59A8C0C-BE12-4AA5-8677-8431732C3304}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{2E725FB5-352C-4178-883F-F954BBBB2E6A}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A2:A16"/>
+  <x:dimension ref="A2:A9"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
     <x:row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A2" s="2" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="2" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="2" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A5" s="2" t="s">
+      <x:c r="A5" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A6" s="2" t="s">
-        <x:v>2</x:v>
+      <x:c r="A6" s="1" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A7" s="2" t="s">
+      <x:c r="A7" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A8" s="2" t="s">
+      <x:c r="A8" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A9" s="2" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A10" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A11" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A15" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <x:c r="A16" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:1">
-      <x:c r="A17" s="2" t="s">
+      <x:c r="A9" s="1" t="s">
         <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1">
+      <x:c r="A10" s="1" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -570,7 +488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{2064E03E-1FDA-4D56-AE7B-0204674F24A9}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{6AA2F67A-5BA8-405C-A3BE-0B836D100606}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -589,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0200-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -597,19 +515,8 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:1">
-      <x:c r="A1" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221D74A-1563-4847-97B2-DEAF88FCC756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31340296-C371-4047-BDA5-A247A09B2D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{7115F4FF-24B6-4644-8968-8CED01078169}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{E585AB98-ED08-489F-92A1-22B0FAE516ED}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <x:t>CHANGES - SOX...eml on date01/09/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</x:t>
   </x:si>
   <x:si>
-    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kl02 (Expected Server Name)</x:t>
-  </x:si>
-  <x:si>
     <x:t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kq_023</x:t>
   </x:si>
   <x:si>
@@ -54,6 +51,9 @@
   </x:si>
   <x:si>
     <x:t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kl02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\Invalid Folder\1-14-2020\CHR0000291924.pdf for the change: CHANGES - SOX Audit Report for magic9843.txt_07.01.73.eml made on 1/14/2020 is not a valid path.</x:t>
   </x:si>
   <x:si>
     <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-22-2020\RE Random Email missing.msg for the change: CHANGES - SOX Audit Report for test234234.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
@@ -423,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{2E725FB5-352C-4178-883F-F954BBBB2E6A}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{2DAB419B-325F-4C13-B405-5A263917803C}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A2:A9"/>
+  <x:dimension ref="A2:A8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -455,7 +455,7 @@
     </x:row>
     <x:row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -468,7 +468,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:1">
       <x:c r="A9" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -488,7 +488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{6AA2F67A-5BA8-405C-A3BE-0B836D100606}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{90CE45C9-59A0-4AA1-B355-674CE82C8F38}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -5,12 +5,12 @@
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31340296-C371-4047-BDA5-A247A09B2D15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8ABD14-F7F7-4AB6-BC5E-CAC5A3D3163B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="0" activeTab="0" xr2:uid="{E585AB98-ED08-489F-92A1-22B0FAE516ED}"/>
+    <x:workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="0" activeTab="0" xr2:uid="{9EDF5876-A533-420A-9662-14B6F89CE8C7}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <x:si>
+    <x:t>CHANGES - MissingFromFolders oiuer3298.txt_07.01.73.eml is missing from its expected location on 01/24/2020 00:00:00</x:t>
+  </x:si>
   <x:si>
     <x:t>CHANGES - SOX...eml does not have valid Reference Type in column I</x:t>
   </x:si>
@@ -44,6 +47,24 @@
     <x:t>CHANGES - SOX...eml on date01/09/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</x:t>
   </x:si>
   <x:si>
+    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kl02 (Expected Server Name)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kq_023 (Expected Server Name)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_qq_appl (Expected Server Name)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name _qq_appl (Expected Server Name)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name testps01 (Expected Server Name)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name testps0324 (Expected Server Name)</x:t>
+  </x:si>
+  <x:si>
     <x:t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kq_023</x:t>
   </x:si>
   <x:si>
@@ -53,7 +74,7 @@
     <x:t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kl02</x:t>
   </x:si>
   <x:si>
-    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\Invalid Folder\1-14-2020\CHR0000291924.pdf for the change: CHANGES - SOX Audit Report for magic9843.txt_07.01.73.eml made on 1/14/2020 is not a valid path.</x:t>
+    <x:t>The file: CHR0000192847.pdf does not appear at FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-09-2020\RandomFolder1\ for the change: CHANGES - SOX Audit Report for testps0324.txt_07.01.73.eml made on 1/9/2020</x:t>
   </x:si>
   <x:si>
     <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-22-2020\RE Random Email missing.msg for the change: CHANGES - SOX Audit Report for test234234.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
@@ -423,59 +444,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{2DAB419B-325F-4C13-B405-5A263917803C}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{A730DB0A-0E2D-4F98-88B8-FCED39AA719A}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A2:A8"/>
+  <x:dimension ref="A2:A16"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <x:sheetData>
-    <x:row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A3" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A4" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A5" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A6" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A7" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A8" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A9" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:1">
+    <x:row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <x:c r="A10" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A11" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A12" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A13" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A14" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A15" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <x:c r="A16" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="1" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -488,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{90CE45C9-59A0-4AA1-B355-674CE82C8F38}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{887873B9-1754-4E22-9191-765EF433F445}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -496,7 +557,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -1,151 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Documents\UiPath\Robotic_Process_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8ABD14-F7F7-4AB6-BC5E-CAC5A3D3163B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" firstSheet="0" activeTab="0" xr2:uid="{9EDF5876-A533-420A-9662-14B6F89CE8C7}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <x:sheet name="System Exceptions" sheetId="6" r:id="rId6"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="191029"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8AFF74-FABE-4F0C-8B5B-C0003D2C9BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="9615" yWindow="6120" windowWidth="25050" windowHeight="13560" xr2:uid="{9EDF5876-A533-420A-9662-14B6F89CE8C7}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="System Exceptions" sheetId="6" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <x:si>
-    <x:t>CHANGES - MissingFromFolders oiuer3298.txt_07.01.73.eml is missing from its expected location on 01/24/2020 00:00:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX...eml does not have valid Reference Type in column I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX...eml on date01/09/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kl02 (Expected Server Name)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kq_023 (Expected Server Name)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_qq_appl (Expected Server Name)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name _qq_appl (Expected Server Name)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name testps01 (Expected Server Name)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name testps0324 (Expected Server Name)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kq_023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73.eml01/13/2020does not contain Server Name magic_qq_appl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kl02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The file: CHR0000192847.pdf does not appear at FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-09-2020\RandomFolder1\ for the change: CHANGES - SOX Audit Report for testps0324.txt_07.01.73.eml made on 1/9/2020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-22-2020\RE Random Email missing.msg for the change: CHANGES - SOX Audit Report for test234234.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+  <si>
+    <t>CHANGES - MissingFromFolders oiuer3298.txt_07.01.73.eml is missing from its expected location on 01/24/2020 00:00:00</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX...eml does not have valid Reference Type in column I</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX...eml on date01/09/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kl02 (Expected Server Name)</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kq_023 (Expected Server Name)</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_qq_appl (Expected Server Name)</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name _qq_appl (Expected Server Name)</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name testps01 (Expected Server Name)</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name testps0324 (Expected Server Name)</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kq_023</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73.eml01/13/2020does not contain Server Name magic_qq_appl</t>
+  </si>
+  <si>
+    <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kl02</t>
+  </si>
+  <si>
+    <t>The file: CHR0000192847.pdf does not appear at FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-09-2020\RandomFolder1\ for the change: CHANGES - SOX Audit Report for testps0324.txt_07.01.73.eml made on 1/9/2020</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,144 +425,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{A730DB0A-0E2D-4F98-88B8-FCED39AA719A}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A2:A16"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <x:sheetData>
-    <x:row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A2" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A3" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A4" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A5" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A6" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A7" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A8" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A9" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A10" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A11" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A12" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A13" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A14" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A15" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <x:c r="A16" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:1">
-      <x:c r="A17" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:1">
-      <x:c r="A18" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A730DB0A-0E2D-4F98-88B8-FCED39AA719A}">
+  <dimension ref="A2:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{887873B9-1754-4E22-9191-765EF433F445}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887873B9-1754-4E22-9191-765EF433F445}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>
--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -1,132 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\UiPath\Robotic_Process_Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8AFF74-FABE-4F0C-8B5B-C0003D2C9BF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="9615" yWindow="6120" windowWidth="25050" windowHeight="13560" xr2:uid="{9EDF5876-A533-420A-9662-14B6F89CE8C7}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="System Exceptions" sheetId="6" r:id="rId3"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E7FBB3-277A-4571-99BE-536CC67A4C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="3696" yWindow="1680" windowWidth="17280" windowHeight="8964" firstSheet="0" activeTab="0" xr2:uid="{5A7B1AED-DA37-492B-8CA9-87292AD1CF2B}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <x:sheet name="System Exceptions" sheetId="6" r:id="rId6"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="191029"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+    </x:ext>
+    <x:ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
-  <si>
-    <t>CHANGES - MissingFromFolders oiuer3298.txt_07.01.73.eml is missing from its expected location on 01/24/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX...eml does not have valid Reference Type in column I</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX...eml on date01/09/2020 00:00:00 is missing ITRCA Member that filed or reviewed final evidence</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kl02 (Expected Server Name)</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_kq_023 (Expected Server Name)</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name magic_qq_appl (Expected Server Name)</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name _qq_appl (Expected Server Name)</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name testps01 (Expected Server Name)</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX...eml on 01/24/2020 00:00:00 missing Server Name testps0324 (Expected Server Name)</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kq_023</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73.eml01/13/2020does not contain Server Name magic_qq_appl</t>
-  </si>
-  <si>
-    <t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kl02</t>
-  </si>
-  <si>
-    <t>The file: CHR0000192847.pdf does not appear at FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-09-2020\RandomFolder1\ for the change: CHANGES - SOX Audit Report for testps0324.txt_07.01.73.eml made on 1/9/2020</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <x:si>
+    <x:t>CHANGES - SOX Audit Report for magic_kl02.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kq_023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX Audit Report for magic_kq_023.txt_07.01.73.eml01/13/2020does not contain Server Name magic_qq_appl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kl02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\Invalid Folder\1-14-2020\CHR0000291924.pdf for the change: CHANGES - SOX Audit Report for magic9843.txt_07.01.73.eml made on 1/14/2020 is not a valid path.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-09-2020\RandomFolder1\ for the change: CHANGES - SOX Audit Report for testps0324.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-22-2020\RandomFolder2\ for the change: CHANGES - SOX Audit Report for magic435.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-22-2020\RE Random Email missing.msg for the change: CHANGES - SOX Audit Report for test234234.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,163 +423,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A730DB0A-0E2D-4F98-88B8-FCED39AA719A}">
-  <dimension ref="A2:A26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00A642ED-0EAD-40F4-979A-169B5505DC60}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:A15"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A9" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A10" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A11" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A12" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A13" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A14" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <x:c r="A15" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:1">
+      <x:c r="A16" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:1">
+      <x:c r="A17" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:1">
+      <x:c r="A18" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:1">
+      <x:c r="A19" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887873B9-1754-4E22-9191-765EF433F445}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{CD5C51C4-43B8-47BF-9674-4901E853D361}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Exceptions.xlsx
+++ b/Exceptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Documents\UiPath\Robotic_Process_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E7FBB3-277A-4571-99BE-536CC67A4C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE84912-352B-4117-BC00-0ABC8D8081C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="3696" yWindow="1680" windowWidth="17280" windowHeight="8964" firstSheet="0" activeTab="0" xr2:uid="{5A7B1AED-DA37-492B-8CA9-87292AD1CF2B}"/>
+    <x:workbookView xWindow="3696" yWindow="1680" windowWidth="17280" windowHeight="8964" firstSheet="0" activeTab="0" xr2:uid="{A3DA47BC-D186-4137-9BB7-88011E82A8AB}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Business Exceptions" sheetId="2" r:id="rId1"/>
@@ -47,13 +47,13 @@
     <x:t>CHANGES - SOX Audit Report for magic_qq_appl.txt_07.01.73.eml01/13/2020does not contain Server Name magic_kl02</x:t>
   </x:si>
   <x:si>
+    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-09-2020\RandomFolder1\ for the change: CHANGES - SOX Audit Report for testps0324.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-22-2020\RandomFolder2\ for the change: CHANGES - SOX Audit Report for magic435.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
+  </x:si>
+  <x:si>
     <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\Invalid Folder\1-14-2020\CHR0000291924.pdf for the change: CHANGES - SOX Audit Report for magic9843.txt_07.01.73.eml made on 1/14/2020 is not a valid path.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-09-2020\RandomFolder1\ for the change: CHANGES - SOX Audit Report for testps0324.txt_07.01.73.eml made on 1/9/2020 is not a valid path.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-22-2020\RandomFolder2\ for the change: CHANGES - SOX Audit Report for magic435.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
   </x:si>
   <x:si>
     <x:t>The Conclusion Evidence Location path: FOLDER\Mainfolder\Remediation_or_Justification Evidence\1-22-2020\RE Random Email missing.msg for the change: CHANGES - SOX Audit Report for test234234.txt_07.01.73.eml made on 1/22/2020 is not a valid path.</x:t>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00A642ED-0EAD-40F4-979A-169B5505DC60}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{8C16D382-69A2-4E63-B6D6-DA4348507F28}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{CD5C51C4-43B8-47BF-9674-4901E853D361}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{43FB5ABA-69E3-4D1F-980D-C0E54F42E6BE}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
